--- a/Parcial 2/05 Herramientas de Excel/03 Validacion de datos/05 Validacion de datos con listas.xlsx
+++ b/Parcial 2/05 Herramientas de Excel/03 Validacion de datos/05 Validacion de datos con listas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 2\05 Herramientas de Excel\03 Validacion de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E124787-29C4-4D8F-AB9F-DD52B850FC18}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B28554-9883-417C-A399-51FFB78A83BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="Bundesliga">Hoja2!$D$2:$D$5</definedName>
-    <definedName name="CategoriaA">Hoja2!$B$13:$B$17</definedName>
-    <definedName name="CategoriaB">Hoja2!$C$13:$C$17</definedName>
-    <definedName name="CategoriaC">Hoja2!$D$13:$D$17</definedName>
-    <definedName name="Categorias">Hoja2!$A$13:$A$15</definedName>
     <definedName name="LaLiga">Hoja2!$C$2:$C$5</definedName>
     <definedName name="LigasDeFutbol">Hoja2!$A$2:$A$4</definedName>
+    <definedName name="Parcial1">Hoja2!$B$14:$B$16</definedName>
+    <definedName name="Parcial2">Hoja2!$C$14:$C$17</definedName>
+    <definedName name="Parcial3">Hoja2!$D$14:$D$17</definedName>
+    <definedName name="Parciales">Hoja2!$A$14:$A$16</definedName>
     <definedName name="PremierLeague">Hoja2!$B$2:$B$4</definedName>
+    <definedName name="selec">Hoja2!$A$21</definedName>
     <definedName name="Seleccion">Hoja2!$A$9</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Una vez que se comete un error se desea que excel informe cual es el error</t>
   </si>
@@ -117,22 +118,58 @@
     <t>Liga de futbol</t>
   </si>
   <si>
-    <t>Categorias</t>
-  </si>
-  <si>
-    <t>CategoriaA</t>
-  </si>
-  <si>
-    <t>CategoriaB</t>
-  </si>
-  <si>
-    <t>CategoriaC</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Elemento</t>
+    <t>&lt;- Listas auxiliares</t>
+  </si>
+  <si>
+    <t>Parciales</t>
+  </si>
+  <si>
+    <t>Parcial1</t>
+  </si>
+  <si>
+    <t>Parcial2</t>
+  </si>
+  <si>
+    <t>Parcial3</t>
+  </si>
+  <si>
+    <t>Funciones basicas</t>
+  </si>
+  <si>
+    <t>Aleatorios</t>
+  </si>
+  <si>
+    <t>Ordenamiento</t>
+  </si>
+  <si>
+    <t>Operaciones con matrices</t>
+  </si>
+  <si>
+    <t>Funciones financieras</t>
+  </si>
+  <si>
+    <t>Solver</t>
+  </si>
+  <si>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t>Diseño de tabla</t>
+  </si>
+  <si>
+    <t>Reporte</t>
+  </si>
+  <si>
+    <t>Formulario</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>Seleccion</t>
+  </si>
+  <si>
+    <t>Tema</t>
   </si>
 </sst>
 </file>
@@ -156,15 +193,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -252,11 +301,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -268,6 +413,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,204 +897,204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1328125" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>34563456</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>43563456</v>
-      </c>
-      <c r="C14">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>43563465</v>
-      </c>
-      <c r="C15">
-        <v>85</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B16">
-        <v>67768688</v>
-      </c>
-      <c r="C16">
-        <v>45</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
+      <c r="B15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B17">
-        <v>65786786</v>
-      </c>
-      <c r="C17">
-        <v>34</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(Seleccion)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>LigasDeFutbol</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A20" xr:uid="{42674E74-CC94-4030-9081-FE4BB0384358}">
-      <formula1>$A$13:$A$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17" xr:uid="{094F641F-2711-40D7-B57B-30B48129E815}">
+      <formula1>cata</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21" xr:uid="{174F4AD6-4A6B-4736-9DDF-33C9E35B10DC}">
+      <formula1>Parciales</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{5FD9645E-CC2E-405D-A632-ED520C8C998B}">
+      <formula1>INDIRECT(selec)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
